--- a/data/pca/factorExposure/factorExposure_2016-06-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-06-09.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01084863417417888</v>
+        <v>0.01248402115811171</v>
       </c>
       <c r="C2">
-        <v>-0.05461086378141843</v>
+        <v>0.04077944096197705</v>
       </c>
       <c r="D2">
-        <v>-0.04199672505800607</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05715950520898329</v>
+      </c>
+      <c r="E2">
+        <v>0.08233185795761663</v>
+      </c>
+      <c r="F2">
+        <v>0.08287281403959401</v>
+      </c>
+      <c r="G2">
+        <v>0.003805321777388839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03967327949489546</v>
+        <v>0.02347880451231117</v>
       </c>
       <c r="C3">
-        <v>-0.1136679120876221</v>
+        <v>0.07077903647497068</v>
       </c>
       <c r="D3">
-        <v>-0.09416168924115569</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07885034089993412</v>
+      </c>
+      <c r="E3">
+        <v>0.06420732498634024</v>
+      </c>
+      <c r="F3">
+        <v>-0.02345415195453177</v>
+      </c>
+      <c r="G3">
+        <v>-0.04010036279263407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05785708873790241</v>
+        <v>0.05623892006320899</v>
       </c>
       <c r="C4">
-        <v>-0.06216225908141641</v>
+        <v>0.06515556576448302</v>
       </c>
       <c r="D4">
-        <v>-0.02922682024276741</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05201339675232731</v>
+      </c>
+      <c r="E4">
+        <v>0.08039717836096483</v>
+      </c>
+      <c r="F4">
+        <v>0.06595055499697004</v>
+      </c>
+      <c r="G4">
+        <v>-0.07181940485217446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.0387380840763269</v>
+        <v>0.03471478799814083</v>
       </c>
       <c r="C6">
-        <v>-0.0391230145335895</v>
+        <v>0.03024250359247602</v>
       </c>
       <c r="D6">
-        <v>-0.03361554202063575</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05847429760642152</v>
+      </c>
+      <c r="E6">
+        <v>0.08237367256974014</v>
+      </c>
+      <c r="F6">
+        <v>0.05058874762287949</v>
+      </c>
+      <c r="G6">
+        <v>-0.05555342086919241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02079135965551348</v>
+        <v>0.01728453779844545</v>
       </c>
       <c r="C7">
-        <v>-0.04670870772541993</v>
+        <v>0.03880677368565965</v>
       </c>
       <c r="D7">
-        <v>0.00557417894298419</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03346470810380561</v>
+      </c>
+      <c r="E7">
+        <v>0.05845543001305703</v>
+      </c>
+      <c r="F7">
+        <v>0.0964529707106688</v>
+      </c>
+      <c r="G7">
+        <v>-0.06142205667012763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.005879141325458368</v>
+        <v>0.003288794221350197</v>
       </c>
       <c r="C8">
-        <v>-0.03587172166707336</v>
+        <v>0.03221602292689831</v>
       </c>
       <c r="D8">
-        <v>-0.02553187118519601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03069490489411083</v>
+      </c>
+      <c r="E8">
+        <v>0.05509031437125866</v>
+      </c>
+      <c r="F8">
+        <v>0.03245447554694968</v>
+      </c>
+      <c r="G8">
+        <v>-0.02568694859742802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0319889526122181</v>
+        <v>0.0359095654388886</v>
       </c>
       <c r="C9">
-        <v>-0.04813539009259903</v>
+        <v>0.05188417580341023</v>
       </c>
       <c r="D9">
-        <v>-0.01405203208716548</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03732689530221253</v>
+      </c>
+      <c r="E9">
+        <v>0.06854525905171466</v>
+      </c>
+      <c r="F9">
+        <v>0.07556658037782787</v>
+      </c>
+      <c r="G9">
+        <v>-0.06114346571915701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08494862622973873</v>
+        <v>0.1053887266513566</v>
       </c>
       <c r="C10">
-        <v>0.1880690163100644</v>
+        <v>-0.1931858093436412</v>
       </c>
       <c r="D10">
-        <v>0.00559795882346726</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.01135241054591263</v>
+      </c>
+      <c r="E10">
+        <v>0.04424229024995804</v>
+      </c>
+      <c r="F10">
+        <v>0.02703416101158413</v>
+      </c>
+      <c r="G10">
+        <v>-0.0251906781029905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0391548102678491</v>
+        <v>0.03494726338430644</v>
       </c>
       <c r="C11">
-        <v>-0.05463013328737147</v>
+        <v>0.04963091745201019</v>
       </c>
       <c r="D11">
-        <v>-0.01037519129970129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03014010174732062</v>
+      </c>
+      <c r="E11">
+        <v>0.02307918178556299</v>
+      </c>
+      <c r="F11">
+        <v>0.05955916313890319</v>
+      </c>
+      <c r="G11">
+        <v>-0.04852792512961537</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04130985420567687</v>
+        <v>0.03728328608798939</v>
       </c>
       <c r="C12">
-        <v>-0.04961133822619505</v>
+        <v>0.04688682692467462</v>
       </c>
       <c r="D12">
-        <v>-0.001151794332785204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02327617748740971</v>
+      </c>
+      <c r="E12">
+        <v>0.03058429031843449</v>
+      </c>
+      <c r="F12">
+        <v>0.06111562282203183</v>
+      </c>
+      <c r="G12">
+        <v>-0.04479202134486091</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01083172706058764</v>
+        <v>0.009746447051121182</v>
       </c>
       <c r="C13">
-        <v>-0.0530213732550102</v>
+        <v>0.04205907551334216</v>
       </c>
       <c r="D13">
-        <v>-0.01308340378154271</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04451363987859436</v>
+      </c>
+      <c r="E13">
+        <v>0.09310369362686068</v>
+      </c>
+      <c r="F13">
+        <v>0.08646158493427392</v>
+      </c>
+      <c r="G13">
+        <v>-0.06807851020884667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006277419864885581</v>
+        <v>0.003939830116187358</v>
       </c>
       <c r="C14">
-        <v>-0.04150909802501909</v>
+        <v>0.03334182086801427</v>
       </c>
       <c r="D14">
-        <v>0.01248873691381402</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0216572237562546</v>
+      </c>
+      <c r="E14">
+        <v>0.04585068898138111</v>
+      </c>
+      <c r="F14">
+        <v>0.09495645167819944</v>
+      </c>
+      <c r="G14">
+        <v>-0.04571026881951133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0003145803725914619</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005028946667946886</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.006670409761288442</v>
+      </c>
+      <c r="E15">
+        <v>0.003999143238736192</v>
+      </c>
+      <c r="F15">
+        <v>0.006045690705218624</v>
+      </c>
+      <c r="G15">
+        <v>-0.002974194980038472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03621890745464756</v>
+        <v>0.0332404125336772</v>
       </c>
       <c r="C16">
-        <v>-0.0498711631414268</v>
+        <v>0.04580706990007986</v>
       </c>
       <c r="D16">
-        <v>-0.006928226546461254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02352636454462719</v>
+      </c>
+      <c r="E16">
+        <v>0.03694265037652832</v>
+      </c>
+      <c r="F16">
+        <v>0.06414955469976288</v>
+      </c>
+      <c r="G16">
+        <v>-0.03368941166650647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01839276474801324</v>
+        <v>0.01439231405275537</v>
       </c>
       <c r="C19">
-        <v>-0.06605737334659539</v>
+        <v>0.04789553783041735</v>
       </c>
       <c r="D19">
-        <v>-0.08797367282250769</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08751318519916682</v>
+      </c>
+      <c r="E19">
+        <v>0.1066122082941202</v>
+      </c>
+      <c r="F19">
+        <v>0.08406270415658945</v>
+      </c>
+      <c r="G19">
+        <v>-0.01938944477377084</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01417471956542908</v>
+        <v>0.01179676263423695</v>
       </c>
       <c r="C20">
-        <v>-0.0484239947958353</v>
+        <v>0.03923472552263435</v>
       </c>
       <c r="D20">
-        <v>-0.01249103570045355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03168402391461241</v>
+      </c>
+      <c r="E20">
+        <v>0.07400302113097094</v>
+      </c>
+      <c r="F20">
+        <v>0.07153384526571328</v>
+      </c>
+      <c r="G20">
+        <v>-0.04470238199875814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.007438429137626029</v>
+        <v>0.007579735465206837</v>
       </c>
       <c r="C21">
-        <v>-0.05033678918155456</v>
+        <v>0.04252169815380065</v>
       </c>
       <c r="D21">
-        <v>-0.03840595235743636</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.05806964460745054</v>
+      </c>
+      <c r="E21">
+        <v>0.1148232428368892</v>
+      </c>
+      <c r="F21">
+        <v>0.1147589169163965</v>
+      </c>
+      <c r="G21">
+        <v>-0.0684078447011323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0007654237656219041</v>
+        <v>0.002413800173723547</v>
       </c>
       <c r="C22">
-        <v>-0.0006152286627436649</v>
+        <v>0.0253149707309584</v>
       </c>
       <c r="D22">
-        <v>-0.001714086089090372</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04159343879544413</v>
+      </c>
+      <c r="E22">
+        <v>0.0377338489477138</v>
+      </c>
+      <c r="F22">
+        <v>0.003728051940644995</v>
+      </c>
+      <c r="G22">
+        <v>-0.05086175086622795</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.000771041586485634</v>
+        <v>0.002485323224660405</v>
       </c>
       <c r="C23">
-        <v>-0.0006152493967855832</v>
+        <v>0.02547222558244626</v>
       </c>
       <c r="D23">
-        <v>-0.001720568726702667</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04124598100848584</v>
+      </c>
+      <c r="E23">
+        <v>0.03800217806546456</v>
+      </c>
+      <c r="F23">
+        <v>0.003419618463089209</v>
+      </c>
+      <c r="G23">
+        <v>-0.05094688195777679</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03272584923326297</v>
+        <v>0.03301527005118536</v>
       </c>
       <c r="C24">
-        <v>-0.05158012599586601</v>
+        <v>0.05338451025240581</v>
       </c>
       <c r="D24">
-        <v>-0.007243775798443706</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.0235429894715729</v>
+      </c>
+      <c r="E24">
+        <v>0.03822898876547234</v>
+      </c>
+      <c r="F24">
+        <v>0.06843938841241363</v>
+      </c>
+      <c r="G24">
+        <v>-0.04416926681296673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04610931107870898</v>
+        <v>0.04249984185728046</v>
       </c>
       <c r="C25">
-        <v>-0.06392457961065059</v>
+        <v>0.05782074007460645</v>
       </c>
       <c r="D25">
-        <v>0.003967450365177878</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02186441254354006</v>
+      </c>
+      <c r="E25">
+        <v>0.02841619059546211</v>
+      </c>
+      <c r="F25">
+        <v>0.06450042163953167</v>
+      </c>
+      <c r="G25">
+        <v>-0.06023822574899072</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01507346158932029</v>
+        <v>0.01435575437428455</v>
       </c>
       <c r="C26">
-        <v>-0.0193135447302769</v>
+        <v>0.01759669408903251</v>
       </c>
       <c r="D26">
-        <v>0.0001795886386928026</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02082730667670725</v>
+      </c>
+      <c r="E26">
+        <v>0.04746535204847391</v>
+      </c>
+      <c r="F26">
+        <v>0.07124424473829934</v>
+      </c>
+      <c r="G26">
+        <v>-0.02160645075663119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1005306935231892</v>
+        <v>0.1411893366452216</v>
       </c>
       <c r="C28">
-        <v>0.2397689674257894</v>
+        <v>-0.246722445809832</v>
       </c>
       <c r="D28">
-        <v>0.008043391552201618</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02798094892714671</v>
+      </c>
+      <c r="E28">
+        <v>0.05956292797815285</v>
+      </c>
+      <c r="F28">
+        <v>0.04525310585837681</v>
+      </c>
+      <c r="G28">
+        <v>-0.04517468434995053</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006035827180844739</v>
+        <v>0.004968130446772605</v>
       </c>
       <c r="C29">
-        <v>-0.03325635629954398</v>
+        <v>0.02940086726749954</v>
       </c>
       <c r="D29">
-        <v>0.01630163248961953</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01522164326189383</v>
+      </c>
+      <c r="E29">
+        <v>0.0445596947967818</v>
+      </c>
+      <c r="F29">
+        <v>0.08408831508208142</v>
+      </c>
+      <c r="G29">
+        <v>-0.05521502656142873</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04216264069706607</v>
+        <v>0.03860764745039362</v>
       </c>
       <c r="C30">
-        <v>-0.05726093927623493</v>
+        <v>0.05879131470816576</v>
       </c>
       <c r="D30">
-        <v>-0.06359009338804966</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09550023011804415</v>
+      </c>
+      <c r="E30">
+        <v>0.07134684286841012</v>
+      </c>
+      <c r="F30">
+        <v>0.09001651593527261</v>
+      </c>
+      <c r="G30">
+        <v>-0.03296577576830187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05538487621421852</v>
+        <v>0.05549563627592771</v>
       </c>
       <c r="C31">
-        <v>-0.04664468196727936</v>
+        <v>0.0617715919963789</v>
       </c>
       <c r="D31">
-        <v>0.02144682163545069</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.01236220260090552</v>
+      </c>
+      <c r="E31">
+        <v>0.06834288455518797</v>
+      </c>
+      <c r="F31">
+        <v>0.04704049979117435</v>
+      </c>
+      <c r="G31">
+        <v>-0.07352659898808589</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.002304586244991144</v>
+        <v>0.004862773169146588</v>
       </c>
       <c r="C32">
-        <v>-0.04004986287756744</v>
+        <v>0.03312494481214347</v>
       </c>
       <c r="D32">
-        <v>-0.04690827548196084</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05237705767478388</v>
+      </c>
+      <c r="E32">
+        <v>0.05429708961931653</v>
+      </c>
+      <c r="F32">
+        <v>0.07298941480940443</v>
+      </c>
+      <c r="G32">
+        <v>-0.02563837715551755</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02620114900456697</v>
+        <v>0.0233905378949678</v>
       </c>
       <c r="C33">
-        <v>-0.06369439826489345</v>
+        <v>0.05519354422899459</v>
       </c>
       <c r="D33">
-        <v>-0.0406859858420794</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.06941155701861237</v>
+      </c>
+      <c r="E33">
+        <v>0.08674932554032731</v>
+      </c>
+      <c r="F33">
+        <v>0.1026643592600316</v>
+      </c>
+      <c r="G33">
+        <v>-0.069862380674619</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04407011527298836</v>
+        <v>0.04000729982709447</v>
       </c>
       <c r="C34">
-        <v>-0.0688521359555478</v>
+        <v>0.06594873938418801</v>
       </c>
       <c r="D34">
-        <v>-0.006028401113135054</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03263890788530877</v>
+      </c>
+      <c r="E34">
+        <v>0.01017308144041297</v>
+      </c>
+      <c r="F34">
+        <v>0.07373372083463432</v>
+      </c>
+      <c r="G34">
+        <v>-0.0475449214660407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0150368583552938</v>
+        <v>0.01378280269223005</v>
       </c>
       <c r="C36">
-        <v>-0.01747531068817396</v>
+        <v>0.01321382631336336</v>
       </c>
       <c r="D36">
-        <v>0.002619304945489049</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02099939128775076</v>
+      </c>
+      <c r="E36">
+        <v>0.05520363756148702</v>
+      </c>
+      <c r="F36">
+        <v>0.06633168997150962</v>
+      </c>
+      <c r="G36">
+        <v>-0.04217026551209709</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.02836857433094536</v>
+        <v>0.02235353215306163</v>
       </c>
       <c r="C38">
-        <v>-0.03037562598471331</v>
+        <v>0.02332457070979905</v>
       </c>
       <c r="D38">
-        <v>0.01201982892176817</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01796552703894474</v>
+      </c>
+      <c r="E38">
+        <v>0.04688179828511047</v>
+      </c>
+      <c r="F38">
+        <v>0.05300787546899226</v>
+      </c>
+      <c r="G38">
+        <v>-0.02760295044108818</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04274367180024469</v>
+        <v>0.03778193869365459</v>
       </c>
       <c r="C39">
-        <v>-0.0670275635535784</v>
+        <v>0.06484484109285274</v>
       </c>
       <c r="D39">
-        <v>-0.01720682493845439</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04853965492618241</v>
+      </c>
+      <c r="E39">
+        <v>0.04225580872415033</v>
+      </c>
+      <c r="F39">
+        <v>0.08775239546669604</v>
+      </c>
+      <c r="G39">
+        <v>-0.03117892255402642</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01154426502370447</v>
+        <v>0.01234188391658551</v>
       </c>
       <c r="C40">
-        <v>-0.05102320630202124</v>
+        <v>0.03709535796977054</v>
       </c>
       <c r="D40">
-        <v>-0.0203557367160246</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.02943483451788199</v>
+      </c>
+      <c r="E40">
+        <v>0.08081033609692692</v>
+      </c>
+      <c r="F40">
+        <v>0.05956764289142288</v>
+      </c>
+      <c r="G40">
+        <v>-0.07909074454022899</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02156283285202733</v>
+        <v>0.01923338495335265</v>
       </c>
       <c r="C41">
-        <v>-0.01341468341858648</v>
+        <v>0.01048854258758651</v>
       </c>
       <c r="D41">
-        <v>-0.002694845350205645</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0143759026475798</v>
+      </c>
+      <c r="E41">
+        <v>0.05504223364207778</v>
+      </c>
+      <c r="F41">
+        <v>0.06049378235517617</v>
+      </c>
+      <c r="G41">
+        <v>-0.0344656304181239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03772307193954186</v>
+        <v>0.02868091053017141</v>
       </c>
       <c r="C43">
-        <v>-0.03501865397257177</v>
+        <v>0.0253531346092655</v>
       </c>
       <c r="D43">
-        <v>-0.02946046400853607</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04087927525218465</v>
+      </c>
+      <c r="E43">
+        <v>0.07002095184831383</v>
+      </c>
+      <c r="F43">
+        <v>0.06400221740783307</v>
+      </c>
+      <c r="G43">
+        <v>-0.0586864436832437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01052098894433487</v>
+        <v>0.01228975816453187</v>
       </c>
       <c r="C44">
-        <v>-0.06771804468292338</v>
+        <v>0.0501169772367762</v>
       </c>
       <c r="D44">
-        <v>-0.01071266682447518</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03153155360472449</v>
+      </c>
+      <c r="E44">
+        <v>0.0851222288567907</v>
+      </c>
+      <c r="F44">
+        <v>0.0712539776336238</v>
+      </c>
+      <c r="G44">
+        <v>-0.02539427053588422</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.006913342924831881</v>
+        <v>0.00808268512442566</v>
       </c>
       <c r="C46">
-        <v>-0.02980737328899798</v>
+        <v>0.02936839602326001</v>
       </c>
       <c r="D46">
-        <v>0.01710850758602489</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.00918955192920424</v>
+      </c>
+      <c r="E46">
+        <v>0.05419587461691755</v>
+      </c>
+      <c r="F46">
+        <v>0.09822527852875493</v>
+      </c>
+      <c r="G46">
+        <v>-0.05224211316030454</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08175865828081418</v>
+        <v>0.08688828136404643</v>
       </c>
       <c r="C47">
-        <v>-0.07360215663421121</v>
+        <v>0.08294849248383311</v>
       </c>
       <c r="D47">
-        <v>0.02182783407558036</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02049437011047055</v>
+      </c>
+      <c r="E47">
+        <v>0.07108434699058605</v>
+      </c>
+      <c r="F47">
+        <v>0.04630697381683285</v>
+      </c>
+      <c r="G47">
+        <v>-0.07350026573082305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01746525071390047</v>
+        <v>0.01593966491916918</v>
       </c>
       <c r="C48">
-        <v>-0.01689642967173919</v>
+        <v>0.01723500909008507</v>
       </c>
       <c r="D48">
-        <v>0.01625729853669694</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.009681840743325502</v>
+      </c>
+      <c r="E48">
+        <v>0.06624858635571793</v>
+      </c>
+      <c r="F48">
+        <v>0.08377585738115483</v>
+      </c>
+      <c r="G48">
+        <v>-0.04945221233169057</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07792950920616312</v>
+        <v>0.06950382403593713</v>
       </c>
       <c r="C50">
-        <v>-0.08374698145791862</v>
+        <v>0.07648886134874776</v>
       </c>
       <c r="D50">
-        <v>0.02169282207876816</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.006186708883008284</v>
+      </c>
+      <c r="E50">
+        <v>0.0752051262054045</v>
+      </c>
+      <c r="F50">
+        <v>0.02608871484075002</v>
+      </c>
+      <c r="G50">
+        <v>-0.09054984519199577</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01366761460342621</v>
+        <v>0.009319930840949377</v>
       </c>
       <c r="C51">
-        <v>-0.05125697342157302</v>
+        <v>0.03257946058382608</v>
       </c>
       <c r="D51">
-        <v>-0.0262023421533744</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04823364437526261</v>
+      </c>
+      <c r="E51">
+        <v>0.04256264319277339</v>
+      </c>
+      <c r="F51">
+        <v>0.08687906845693011</v>
+      </c>
+      <c r="G51">
+        <v>-0.02755634986864807</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.07942235934079885</v>
+        <v>0.09285192363517056</v>
       </c>
       <c r="C53">
-        <v>-0.08072377417257895</v>
+        <v>0.08969096732540391</v>
       </c>
       <c r="D53">
-        <v>0.04454202195767322</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.0515136519959002</v>
+      </c>
+      <c r="E53">
+        <v>0.06676161116986232</v>
+      </c>
+      <c r="F53">
+        <v>0.04484878253671198</v>
+      </c>
+      <c r="G53">
+        <v>-0.07884274243073855</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.03126565061153739</v>
+        <v>0.02770491820278533</v>
       </c>
       <c r="C54">
-        <v>-0.0326672621122665</v>
+        <v>0.02958587778820752</v>
       </c>
       <c r="D54">
-        <v>0.001233375894065339</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02441430299825089</v>
+      </c>
+      <c r="E54">
+        <v>0.05250669885881404</v>
+      </c>
+      <c r="F54">
+        <v>0.09023753786953584</v>
+      </c>
+      <c r="G54">
+        <v>-0.05498938667602216</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07371948685758795</v>
+        <v>0.08468165750657616</v>
       </c>
       <c r="C55">
-        <v>-0.06218798801206336</v>
+        <v>0.0729862300393037</v>
       </c>
       <c r="D55">
-        <v>0.05067883571798554</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05585441874883642</v>
+      </c>
+      <c r="E55">
+        <v>0.04849150951209467</v>
+      </c>
+      <c r="F55">
+        <v>0.02583792118706271</v>
+      </c>
+      <c r="G55">
+        <v>-0.06009662310678492</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1430989663665118</v>
+        <v>0.1461844873648487</v>
       </c>
       <c r="C56">
-        <v>-0.1004135794281003</v>
+        <v>0.1108386749352858</v>
       </c>
       <c r="D56">
-        <v>0.04212773995765029</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05270374663184584</v>
+      </c>
+      <c r="E56">
+        <v>0.04915125834533931</v>
+      </c>
+      <c r="F56">
+        <v>0.003314060894736038</v>
+      </c>
+      <c r="G56">
+        <v>-0.04885575660152017</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.0005870326613928479</v>
+        <v>-0.0003306496604651018</v>
       </c>
       <c r="C57">
-        <v>0.002024830195689421</v>
+        <v>-0.001299665993755327</v>
       </c>
       <c r="D57">
-        <v>-0.001283459865549463</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.0002837018635461042</v>
+      </c>
+      <c r="E57">
+        <v>0.0009783912370242053</v>
+      </c>
+      <c r="F57">
+        <v>-0.001244807576151212</v>
+      </c>
+      <c r="G57">
+        <v>0.002061180676670886</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04051584503071672</v>
+        <v>0.02398016956614788</v>
       </c>
       <c r="C58">
-        <v>-0.01900616230240545</v>
+        <v>0.01965142097619525</v>
       </c>
       <c r="D58">
-        <v>-0.7664810437585123</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4116000015205565</v>
+      </c>
+      <c r="E58">
+        <v>0.6544599418930375</v>
+      </c>
+      <c r="F58">
+        <v>-0.4955451496542532</v>
+      </c>
+      <c r="G58">
+        <v>0.2935019973556585</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1380080963528087</v>
+        <v>0.1478020831601414</v>
       </c>
       <c r="C59">
-        <v>0.1931754683484601</v>
+        <v>-0.1840799466853727</v>
       </c>
       <c r="D59">
-        <v>-0.02036969031405276</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02403506838937134</v>
+      </c>
+      <c r="E59">
+        <v>0.0280232227746047</v>
+      </c>
+      <c r="F59">
+        <v>0.03000341077719265</v>
+      </c>
+      <c r="G59">
+        <v>0.02043896649458951</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3084019662358012</v>
+        <v>0.2801742825131998</v>
       </c>
       <c r="C60">
-        <v>-0.10848016056738</v>
+        <v>0.1059598770113003</v>
       </c>
       <c r="D60">
-        <v>-0.1346901393499766</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2553327919525405</v>
+      </c>
+      <c r="E60">
+        <v>-0.2510638261241011</v>
+      </c>
+      <c r="F60">
+        <v>-0.07062952678887589</v>
+      </c>
+      <c r="G60">
+        <v>-0.03981338514079653</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.0409059480605941</v>
+        <v>0.03912623035262674</v>
       </c>
       <c r="C61">
-        <v>-0.06473386205565264</v>
+        <v>0.06090756806232472</v>
       </c>
       <c r="D61">
-        <v>-0.01459762650437759</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04085552212906447</v>
+      </c>
+      <c r="E61">
+        <v>0.04642259643191436</v>
+      </c>
+      <c r="F61">
+        <v>0.07035255730697389</v>
+      </c>
+      <c r="G61">
+        <v>-0.05043192462394042</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01433014438199532</v>
+        <v>0.01409366479677486</v>
       </c>
       <c r="C63">
-        <v>-0.03510445823523073</v>
+        <v>0.03227124455554834</v>
       </c>
       <c r="D63">
-        <v>0.01124570226483405</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01583287460622743</v>
+      </c>
+      <c r="E63">
+        <v>0.05800071762590977</v>
+      </c>
+      <c r="F63">
+        <v>0.05634863517192246</v>
+      </c>
+      <c r="G63">
+        <v>-0.05970957422372832</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04748889857630222</v>
+        <v>0.0541838667317205</v>
       </c>
       <c r="C64">
-        <v>-0.04913470065017934</v>
+        <v>0.05791964460890284</v>
       </c>
       <c r="D64">
-        <v>-0.001309859110565782</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.004069565359715762</v>
+      </c>
+      <c r="E64">
+        <v>0.0363629018344721</v>
+      </c>
+      <c r="F64">
+        <v>0.07320682461086864</v>
+      </c>
+      <c r="G64">
+        <v>-0.043056053836232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08345825852287989</v>
+        <v>0.06747556716229254</v>
       </c>
       <c r="C65">
-        <v>-0.03372058408156994</v>
+        <v>0.0312275513447469</v>
       </c>
       <c r="D65">
-        <v>-0.05627707388052399</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0849932697472742</v>
+      </c>
+      <c r="E65">
+        <v>0.04713540693279588</v>
+      </c>
+      <c r="F65">
+        <v>0.01024917954108975</v>
+      </c>
+      <c r="G65">
+        <v>-0.01737492445765098</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.05761982795702196</v>
+        <v>0.04884057075519035</v>
       </c>
       <c r="C66">
-        <v>-0.0933377064563153</v>
+        <v>0.08425113537753517</v>
       </c>
       <c r="D66">
-        <v>-0.03608801532775018</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07292097824996621</v>
+      </c>
+      <c r="E66">
+        <v>0.04962911732507309</v>
+      </c>
+      <c r="F66">
+        <v>0.08680937737570775</v>
+      </c>
+      <c r="G66">
+        <v>-0.05028809200458852</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05067504526983582</v>
+        <v>0.04451846672535603</v>
       </c>
       <c r="C67">
-        <v>-0.03214230517391525</v>
+        <v>0.02866208562666166</v>
       </c>
       <c r="D67">
-        <v>0.01813896445045869</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.002964945845109668</v>
+      </c>
+      <c r="E67">
+        <v>0.02473226334307342</v>
+      </c>
+      <c r="F67">
+        <v>0.03762626343896201</v>
+      </c>
+      <c r="G67">
+        <v>-0.02410678978930733</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1371450320589134</v>
+        <v>0.1569369253792615</v>
       </c>
       <c r="C68">
-        <v>0.2782799499552953</v>
+        <v>-0.2436091494282928</v>
       </c>
       <c r="D68">
-        <v>0.007483589870752551</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01650401238498068</v>
+      </c>
+      <c r="E68">
+        <v>0.04233215294775455</v>
+      </c>
+      <c r="F68">
+        <v>0.01617686296830662</v>
+      </c>
+      <c r="G68">
+        <v>-0.02780286717403506</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08835726059574146</v>
+        <v>0.08573739898184234</v>
       </c>
       <c r="C69">
-        <v>-0.07359744002782655</v>
+        <v>0.09031409091761354</v>
       </c>
       <c r="D69">
-        <v>0.03703685060661726</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01195330580307733</v>
+      </c>
+      <c r="E69">
+        <v>0.05494874299996996</v>
+      </c>
+      <c r="F69">
+        <v>0.07215514325367195</v>
+      </c>
+      <c r="G69">
+        <v>-0.06232109296406068</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1239447575823831</v>
+        <v>0.146950390372807</v>
       </c>
       <c r="C71">
-        <v>0.2462936030171672</v>
+        <v>-0.2343247333218582</v>
       </c>
       <c r="D71">
-        <v>-0.01818404284414424</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.001098768272780375</v>
+      </c>
+      <c r="E71">
+        <v>0.06373466499225863</v>
+      </c>
+      <c r="F71">
+        <v>0.03521667925574441</v>
+      </c>
+      <c r="G71">
+        <v>-0.05833536530124739</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.08975588708388989</v>
+        <v>0.09853358656052327</v>
       </c>
       <c r="C72">
-        <v>-0.06057910503618025</v>
+        <v>0.06032819161498215</v>
       </c>
       <c r="D72">
-        <v>-0.003700540476263177</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02698127172077332</v>
+      </c>
+      <c r="E72">
+        <v>0.02504863570285682</v>
+      </c>
+      <c r="F72">
+        <v>0.05206105628897448</v>
+      </c>
+      <c r="G72">
+        <v>-0.06150892911244295</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4040081340107352</v>
+        <v>0.3424245839449495</v>
       </c>
       <c r="C73">
-        <v>-0.05974513312358215</v>
+        <v>0.07391058320636051</v>
       </c>
       <c r="D73">
-        <v>-0.3356993884279847</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.5112685068635232</v>
+      </c>
+      <c r="E73">
+        <v>-0.4532045688612331</v>
+      </c>
+      <c r="F73">
+        <v>-0.2186278315822593</v>
+      </c>
+      <c r="G73">
+        <v>-0.04969083956563792</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1022148488890107</v>
+        <v>0.1084285991206224</v>
       </c>
       <c r="C74">
-        <v>-0.09825454069940079</v>
+        <v>0.09838267452395599</v>
       </c>
       <c r="D74">
-        <v>0.02448377361266848</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.04280065501594655</v>
+      </c>
+      <c r="E74">
+        <v>0.06563407472255446</v>
+      </c>
+      <c r="F74">
+        <v>0.001699134712748911</v>
+      </c>
+      <c r="G74">
+        <v>-0.06767067204671229</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2505727138602832</v>
+        <v>0.2555422008592938</v>
       </c>
       <c r="C75">
-        <v>-0.1111939603678375</v>
+        <v>0.1365530810687029</v>
       </c>
       <c r="D75">
-        <v>0.09771531008529383</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1440177851994066</v>
+      </c>
+      <c r="E75">
+        <v>0.05706976879772652</v>
+      </c>
+      <c r="F75">
+        <v>-0.04668818904424987</v>
+      </c>
+      <c r="G75">
+        <v>-0.01984793314469765</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1092302909582111</v>
+        <v>0.1245365531582943</v>
       </c>
       <c r="C76">
-        <v>-0.08865928958562486</v>
+        <v>0.09976893254036234</v>
       </c>
       <c r="D76">
-        <v>0.05113992490857613</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.07121378966930254</v>
+      </c>
+      <c r="E76">
+        <v>0.07381426934070931</v>
+      </c>
+      <c r="F76">
+        <v>0.02583190064303792</v>
+      </c>
+      <c r="G76">
+        <v>-0.05914828649179207</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07453679434314685</v>
+        <v>0.05939543501101133</v>
       </c>
       <c r="C77">
-        <v>-0.0594977647542338</v>
+        <v>0.06959565838936621</v>
       </c>
       <c r="D77">
-        <v>-0.04949450776027452</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05569754494078662</v>
+      </c>
+      <c r="E77">
+        <v>0.09512658572883838</v>
+      </c>
+      <c r="F77">
+        <v>0.151458699260184</v>
+      </c>
+      <c r="G77">
+        <v>0.1054353200175424</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04599212321951582</v>
+        <v>0.04304329361529699</v>
       </c>
       <c r="C78">
-        <v>-0.05235179664742149</v>
+        <v>0.05831157175152896</v>
       </c>
       <c r="D78">
-        <v>-0.01634803988749862</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05634639429320606</v>
+      </c>
+      <c r="E78">
+        <v>0.05220434111686576</v>
+      </c>
+      <c r="F78">
+        <v>0.08118422503591953</v>
+      </c>
+      <c r="G78">
+        <v>-0.04458594989909398</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02855184571675573</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04544007603240847</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.06950778909768841</v>
+      </c>
+      <c r="E79">
+        <v>0.06519564120174123</v>
+      </c>
+      <c r="F79">
+        <v>-0.011440570263347</v>
+      </c>
+      <c r="G79">
+        <v>-0.06291339089702003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03826473254756017</v>
+        <v>0.03002647135899494</v>
       </c>
       <c r="C80">
-        <v>-0.05382565341301351</v>
+        <v>0.05251139301106905</v>
       </c>
       <c r="D80">
-        <v>-0.01623753671415664</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0318442279823515</v>
+      </c>
+      <c r="E80">
+        <v>0.01591715996253329</v>
+      </c>
+      <c r="F80">
+        <v>0.04629709584479057</v>
+      </c>
+      <c r="G80">
+        <v>0.03012128166615835</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1371985120120607</v>
+        <v>0.1373042092532049</v>
       </c>
       <c r="C81">
-        <v>-0.08137086343900246</v>
+        <v>0.0972152932092977</v>
       </c>
       <c r="D81">
-        <v>0.06978281375836373</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1135956890474632</v>
+      </c>
+      <c r="E81">
+        <v>0.07523083633150775</v>
+      </c>
+      <c r="F81">
+        <v>-0.02877968507236843</v>
+      </c>
+      <c r="G81">
+        <v>-0.02578991976552569</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.168702403329955</v>
+        <v>0.2074324919753568</v>
       </c>
       <c r="C82">
-        <v>-0.09601474614418067</v>
+        <v>0.1585875024816593</v>
       </c>
       <c r="D82">
-        <v>0.1569552410942601</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2344590472688158</v>
+      </c>
+      <c r="E82">
+        <v>0.0007680887376534031</v>
+      </c>
+      <c r="F82">
+        <v>0.04751050758069308</v>
+      </c>
+      <c r="G82">
+        <v>-0.0431586305522052</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03819170684197107</v>
+        <v>0.0262585688529269</v>
       </c>
       <c r="C83">
-        <v>-0.03145343475473938</v>
+        <v>0.04314400906690514</v>
       </c>
       <c r="D83">
-        <v>-0.02633755484413755</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.02750897644468022</v>
+      </c>
+      <c r="E83">
+        <v>0.02270704889126849</v>
+      </c>
+      <c r="F83">
+        <v>0.04612679664162744</v>
+      </c>
+      <c r="G83">
+        <v>0.004503880175354484</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0001488811660110765</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0007986091425164484</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001117165987479844</v>
+      </c>
+      <c r="E84">
+        <v>0.0007572762873220756</v>
+      </c>
+      <c r="F84">
+        <v>0.0009712566483241681</v>
+      </c>
+      <c r="G84">
+        <v>-0.0002113681801141857</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2165357137801099</v>
+        <v>0.2007841255025256</v>
       </c>
       <c r="C85">
-        <v>-0.1074852530938265</v>
+        <v>0.1191734905990436</v>
       </c>
       <c r="D85">
-        <v>0.132366035873845</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1123930054684223</v>
+      </c>
+      <c r="E85">
+        <v>-0.01548918635034482</v>
+      </c>
+      <c r="F85">
+        <v>-0.08956234101763784</v>
+      </c>
+      <c r="G85">
+        <v>-0.06914415775690702</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.005552957719717517</v>
+        <v>0.008238123271491142</v>
       </c>
       <c r="C86">
-        <v>-0.03204355063180401</v>
+        <v>0.02256673316191029</v>
       </c>
       <c r="D86">
-        <v>-0.02577907112915613</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04621792966541206</v>
+      </c>
+      <c r="E86">
+        <v>0.06806731622149295</v>
+      </c>
+      <c r="F86">
+        <v>0.1292814306470435</v>
+      </c>
+      <c r="G86">
+        <v>-0.0491915782406535</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.02267495816457581</v>
+        <v>0.02253729312387566</v>
       </c>
       <c r="C87">
-        <v>-0.008181651085809953</v>
+        <v>0.01537867974724012</v>
       </c>
       <c r="D87">
-        <v>-0.08697386908500986</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08058970171720294</v>
+      </c>
+      <c r="E87">
+        <v>0.1215841720123608</v>
+      </c>
+      <c r="F87">
+        <v>0.08311269413629793</v>
+      </c>
+      <c r="G87">
+        <v>0.00601227757213184</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.103715958709321</v>
+        <v>0.09155371845001849</v>
       </c>
       <c r="C88">
-        <v>-0.07500180343911005</v>
+        <v>0.06392448736241778</v>
       </c>
       <c r="D88">
-        <v>0.02324325468409947</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.00294828150926945</v>
+      </c>
+      <c r="E88">
+        <v>0.04583013411399105</v>
+      </c>
+      <c r="F88">
+        <v>0.07592373721798143</v>
+      </c>
+      <c r="G88">
+        <v>-0.0129471213681891</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1979635053508902</v>
+        <v>0.2278519484693824</v>
       </c>
       <c r="C89">
-        <v>0.3723139915072323</v>
+        <v>-0.3763572140670912</v>
       </c>
       <c r="D89">
-        <v>0.03086659284119719</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02711044248681154</v>
+      </c>
+      <c r="E89">
+        <v>0.0643810256137432</v>
+      </c>
+      <c r="F89">
+        <v>0.09225083520198248</v>
+      </c>
+      <c r="G89">
+        <v>0.03159888023202902</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1883083688604949</v>
+        <v>0.2063617975772505</v>
       </c>
       <c r="C90">
-        <v>0.3302191609370587</v>
+        <v>-0.3088288097016586</v>
       </c>
       <c r="D90">
-        <v>0.02618983878456606</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.0266268615287615</v>
+      </c>
+      <c r="E90">
+        <v>0.06732397459812894</v>
+      </c>
+      <c r="F90">
+        <v>0.03892735484869483</v>
+      </c>
+      <c r="G90">
+        <v>0.0002721581452485607</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.185934485340959</v>
+        <v>0.183974709169255</v>
       </c>
       <c r="C91">
-        <v>-0.1317030702938078</v>
+        <v>0.1470832625625151</v>
       </c>
       <c r="D91">
-        <v>0.0928822712328676</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1194636838980201</v>
+      </c>
+      <c r="E91">
+        <v>0.05441610314995821</v>
+      </c>
+      <c r="F91">
+        <v>-0.01553351913365538</v>
+      </c>
+      <c r="G91">
+        <v>-0.0293536318174747</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1698488930142996</v>
+        <v>0.1856208912078749</v>
       </c>
       <c r="C92">
-        <v>0.2746084513295856</v>
+        <v>-0.2824020625742015</v>
       </c>
       <c r="D92">
-        <v>0.01847917185303154</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02738977860103356</v>
+      </c>
+      <c r="E92">
+        <v>0.07267600238062538</v>
+      </c>
+      <c r="F92">
+        <v>0.07491365086749852</v>
+      </c>
+      <c r="G92">
+        <v>-0.01649898218614137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2107637608357044</v>
+        <v>0.2291060901698286</v>
       </c>
       <c r="C93">
-        <v>0.3298000399027329</v>
+        <v>-0.3141434145341363</v>
       </c>
       <c r="D93">
-        <v>0.03028726381739226</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.02349992276657619</v>
+      </c>
+      <c r="E93">
+        <v>0.04123771302171956</v>
+      </c>
+      <c r="F93">
+        <v>0.01912213465779873</v>
+      </c>
+      <c r="G93">
+        <v>-0.03391962395924758</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3348102475129163</v>
+        <v>0.3385577743041833</v>
       </c>
       <c r="C94">
-        <v>-0.163507722301186</v>
+        <v>0.1957651680759749</v>
       </c>
       <c r="D94">
-        <v>0.3432213536715473</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4350899414541248</v>
+      </c>
+      <c r="E94">
+        <v>-0.001380833670850658</v>
+      </c>
+      <c r="F94">
+        <v>-0.273445451786491</v>
+      </c>
+      <c r="G94">
+        <v>0.4229190171145802</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1101077354308233</v>
+        <v>0.08243210135006687</v>
       </c>
       <c r="C95">
-        <v>-0.07577988482773701</v>
+        <v>0.06431438648961596</v>
       </c>
       <c r="D95">
-        <v>-0.1175186013636889</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1772249841752077</v>
+      </c>
+      <c r="E95">
+        <v>-0.09779908245140241</v>
+      </c>
+      <c r="F95">
+        <v>0.5308721945090823</v>
+      </c>
+      <c r="G95">
+        <v>0.7336752653094631</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1949896552149577</v>
+        <v>0.1874233434729977</v>
       </c>
       <c r="C98">
-        <v>-0.02317968879046692</v>
+        <v>0.04468616560575187</v>
       </c>
       <c r="D98">
-        <v>-0.1209973135467697</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1972080924027518</v>
+      </c>
+      <c r="E98">
+        <v>-0.1363645790347862</v>
+      </c>
+      <c r="F98">
+        <v>-0.05389821217426034</v>
+      </c>
+      <c r="G98">
+        <v>-0.08904615743056767</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.005882738026694344</v>
+        <v>0.004943959523272009</v>
       </c>
       <c r="C101">
-        <v>-0.03314906066131961</v>
+        <v>0.02905371762418077</v>
       </c>
       <c r="D101">
-        <v>0.01614063434321767</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.015195832633002</v>
+      </c>
+      <c r="E101">
+        <v>0.04526125890849241</v>
+      </c>
+      <c r="F101">
+        <v>0.08479549187168012</v>
+      </c>
+      <c r="G101">
+        <v>-0.05497436992305549</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1219588069236187</v>
+        <v>0.1242289522546299</v>
       </c>
       <c r="C102">
-        <v>-0.07616519544976651</v>
+        <v>0.1035037323056232</v>
       </c>
       <c r="D102">
-        <v>0.0390144552823859</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05249872667736459</v>
+      </c>
+      <c r="E102">
+        <v>-0.006399728859785698</v>
+      </c>
+      <c r="F102">
+        <v>0.01793556350745933</v>
+      </c>
+      <c r="G102">
+        <v>-0.00317597346448646</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
